--- a/prodigy_dfc_pdf_output.xlsx
+++ b/prodigy_dfc_pdf_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -881,306 +881,307 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>h Study Extension</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>35684</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>4 Prodigy Financial Covenants</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
+      <c r="B43" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 1</t>
         </is>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>USD Eq</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Test Date</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>07/02/2025</t>
-        </is>
-      </c>
+          <t>USD Eq</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Minimum Tangible Net Worth Covenant</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
+          <t>Test Date</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>07/02/2025</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Paid up issued share capital of PIL and dist &amp; non dist reserves</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>171365491</t>
-        </is>
-      </c>
+          <t>Minimum Tangible Net Worth Covenant</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Plus convertible loan notes</t>
+          <t>Paid up issued share capital of PIL and dist &amp; non dist reserves</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>171365491</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Less debit balance on PnL</t>
+          <t>Plus convertible loan notes</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>(151512220)</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Excluding increase in asset valuation after most recent audited financials</t>
+          <t>Less debit balance on PnL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>(151512220)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Excluding goodwill and intangible assets</t>
+          <t>Excluding increase in asset valuation after most recent audited financials</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>(303457)</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Excluding capitalised transaction expenses</t>
+          <t>Excluding goodwill and intangible assets</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>112690</t>
+          <t>(303457)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Excluding mark-to-market movements in any hedging agreements</t>
+          <t>Excluding capitalised transaction expenses</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>112690</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Tangible Net Worth</t>
+          <t>Excluding mark-to-market movements in any hedging agreements</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>19662504</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Minimum Tangible Net Worth Requirement</t>
+          <t>Tangible Net Worth</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5000000</t>
+          <t>19662504</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Tangible Net Worth Covenant Test Pass/Fail</t>
+          <t>Minimum Tangible Net Worth Requirement</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>5000000</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Minimum Cash &amp; Cash Equivalents Covenant</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr"/>
+          <t>Tangible Net Worth Covenant Test Pass/Fail</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PIL Group Cash &amp; Cash Equivalents</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>15250035</t>
-        </is>
-      </c>
+          <t>Minimum Cash &amp; Cash Equivalents Covenant</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Minimum Cash and Cash Equivalents Requirement</t>
+          <t>PIL Group Cash &amp; Cash Equivalents</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5000000</t>
+          <t>15250035</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Cash Covenant Test Pass/Fail</t>
+          <t>Minimum Cash and Cash Equivalents Requirement</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>5000000</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6 month burn rate</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr"/>
+          <t>Cash Covenant Test Pass/Fail</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Total income</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>18903122</t>
-        </is>
-      </c>
+          <t>6 month burn rate</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>(Increase) / Decrease in trade and other receivables</t>
+          <t>Total income</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>478744</t>
+          <t>18903122</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Less: non-recurring revenues</t>
+          <t>(Increase) / Decrease in trade and other receivables</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>478744</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A: Operating revenue received in cash</t>
+          <t>Less: non-recurring revenues</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>19381865</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Total direct and operating costs</t>
+          <t>A: Operating revenue received in cash</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>(11523454)</t>
+          <t>19381865</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Increase / (Decrease) in trade payables</t>
+          <t>Total direct and operating costs</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>(882337)</t>
+          <t>(11523454)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Purchase of property plant and equipment</t>
+          <t>Increase / (Decrease) in trade payables</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>(882337)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Proceeds on disposal of property plant and equipment</t>
+          <t>Purchase of property plant and equipment</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1192,7 +1193,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Interest paid</t>
+          <t>Proceeds on disposal of property plant and equipment</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1204,323 +1205,315 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Less: non-recurring expenses</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr"/>
+          <t>Interest paid</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>B: Operating expenses paid in cash</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>(12405791)</t>
-        </is>
-      </c>
+          <t>Less: non-recurring expenses</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
+          <t>B: Operating expenses paid in cash</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>(12405791)</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
           <t>Burn rate for prior 6 months: Net Outflow of Cash (A less B)</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>6976074</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>1 Collateral Strats</t>
-        </is>
-      </c>
-      <c r="B74" s="1" t="inlineStr">
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>5 Performance Triggers</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 1</t>
         </is>
       </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>All balances principal admin fee and grace interest USD Loans</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>unless stated otherwise USD</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr"/>
+          <t>Test Date</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>07/02/2025</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t># Loans</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>9124</t>
-        </is>
-      </c>
+          <t>Test Loan Portfolio Purchased</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Principal Balance &amp; Admin Fee Only</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>90168991</t>
-        </is>
-      </c>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Plus Interest During Grace</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>99252731</t>
-        </is>
-      </c>
+          <t>Portfolio Cumulative Default Ratio</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Average Loan Size</t>
+          <t>Cum. Default Rate</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>10878</t>
+          <t>4.23%</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Current Balance</t>
+          <t>Cum. Default Trigger Level</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>103595247</t>
+          <t>11.00%</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Average Loan Size</t>
+          <t>Cum. Default Rate Test Pass/Fail</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>11354</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Loan Approved Balance &amp; Admin Fee</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>322995009</t>
-        </is>
-      </c>
+          <t>Arrangement Ratio (Long)</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Average Loan Size</t>
+          <t>Arranagement Ratio</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>35401</t>
+          <t>1.77%</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Loans In Repayment Stage Balance</t>
+          <t>Forbearance Ratio Trigger Level</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>95645151</t>
+          <t>5.00%</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MBA Course Balance</t>
+          <t>Forbearance Ratio Test Pass/Fail</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>21241503</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Non-MBA Course Balance</t>
+          <t>Ratio Numerator</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>8921736</t>
+          <t>1766724</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Non-Business Course Balance</t>
+          <t>Ratio Denominator</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>25901808</t>
+          <t>99563532</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Female Borrower Balance</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>36391241</t>
-        </is>
-      </c>
+          <t>Arrangement Ratio (Short)</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Low and Lower Middle-Income Countries Balance</t>
+          <t>Arranagement Ratio</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>81676701</t>
+          <t>2.79%</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Permitted Modification Loan Balance</t>
+          <t>Forbearance Ratio Trigger Level</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>923890</t>
+          <t>12.00%</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>WA Margin Loans (%)</t>
+          <t>Forbearance Ratio Test Pass/Fail</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>8.16%</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Lowest Margin (%)</t>
+          <t>Ratio Numerator</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>3.50%</t>
+          <t>2779456</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Last Maturity Date</t>
+          <t>Ratio Denominator</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>15/03/2045</t>
+          <t>99563532</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>WA Original Repay Period (Years) 1</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
+          <t>Weighted Average Margin</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Grace Loans WA Remaining Grace Period (Months)</t>
+          <t>Weighted Average Interest Margin</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>8.16%</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2 Delinquency &amp; Payment Arrangement Data</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr"/>
+          <t>Weighted Average Interest Margin Trigger Level (Min)</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>5.25%</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>All balances principal admin fee and grace interest USD Loans # Loans</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr"/>
+          <t>Weighted Average Margin Test Pass/Fail</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>unless stated otherwise USD</t>
+          <t>In-Study Forbearance Loans</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
@@ -1528,56 +1521,88 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Delinquency</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr"/>
+          <t>Count of loans in In-Study Forbearance</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>a Current 69723696</t>
+          <t>In-Study Forbearance Loans Trigger Level</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>8281</t>
+          <t>75.00</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>b Delinquent &lt;=30 days</t>
+          <t>In-Study Forbearance Loans Test Pass/Fail</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>5097609151</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>c Delinquent 31-60 days</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>3347471103</t>
-        </is>
-      </c>
+          <t>Other Triggers Tested on All Receivables</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>d Delinquent 61-90 days</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>250352773</t>
+          <t>Delinquency Ratio</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Delinquency Ratio</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>3.86%</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Delinquency Ratio Trigger Level</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>6.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Delinquency Ratio Test Pass/Fail</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>PASS</t>
         </is>
       </c>
     </row>
